--- a/Full_MOSFET/FULL MOSFET ID VD 100um.xlsx
+++ b/Full_MOSFET/FULL MOSFET ID VD 100um.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalbe\OneDrive\Desktop\ECE220 Lab4\ece220\Full_MOSFET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C2522B-850E-413D-953C-051866DEC7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206BEB8E-6B9E-4FD6-9D09-F7C92B27BF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,7 +333,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -368,6 +398,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="100"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-79E9-4141-9D96-231F7C85DBF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'100um_x_5u'!$A$3:$A$103</c:f>
@@ -1028,6 +1130,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="100"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-79E9-4141-9D96-231F7C85DBF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'100um_x_5u'!$A$3:$A$103</c:f>
@@ -1688,6 +1862,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="100"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-79E9-4141-9D96-231F7C85DBF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'100um_x_5u'!$A$3:$A$103</c:f>
@@ -2348,6 +2594,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="100"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-79E9-4141-9D96-231F7C85DBF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'100um_x_5u'!$A$3:$A$103</c:f>
@@ -3008,6 +3326,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="100"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-79E9-4141-9D96-231F7C85DBF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'100um_x_5u'!$A$3:$A$103</c:f>
@@ -3668,6 +4058,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="100"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-79E9-4141-9D96-231F7C85DBF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'100um_x_5u'!$A$3:$A$103</c:f>
@@ -4330,6 +4792,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="100"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-79E9-4141-9D96-231F7C85DBF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'100um_x_5u'!$A$3:$A$103</c:f>
@@ -4992,6 +5526,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="100"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24119789558883031"/>
+                  <c:y val="4.2105255810804515E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-79E9-4141-9D96-231F7C85DBF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'100um_x_5u'!$A$3:$A$103</c:f>
@@ -5808,37 +6420,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -13677,8 +14258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D927E02-20C9-4FA4-B677-B5A4BC15D4E6}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
